--- a/src/channels.xlsx
+++ b/src/channels.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITB-AnkrPT\CatIPTVM3u\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{100BBC90-D01B-40C1-AFED-BDBE446E3173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641A9F81-E692-447A-AB6A-9E269C758714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ChannelList" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +35,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+  <si>
+    <t>united kingdom</t>
+  </si>
   <si>
     <t>RTE One</t>
   </si>
   <si>
-    <t>gb.png</t>
+    <t>RTE Two</t>
+  </si>
+  <si>
+    <t>TG4</t>
+  </si>
+  <si>
+    <t>Sky Sports News</t>
+  </si>
+  <si>
+    <t>Sky Sports Main Event</t>
+  </si>
+  <si>
+    <t>Sky Sports Premier League</t>
+  </si>
+  <si>
+    <t>Sky Sports Football</t>
+  </si>
+  <si>
+    <t>Sky Sports Golf</t>
+  </si>
+  <si>
+    <t>BT Sports 1</t>
+  </si>
+  <si>
+    <t>BT Sports 2</t>
+  </si>
+  <si>
+    <t>BT Sports 3</t>
+  </si>
+  <si>
+    <t>Premier Sports 1</t>
+  </si>
+  <si>
+    <t>Premier Sports 2</t>
+  </si>
+  <si>
+    <t>MUTV</t>
+  </si>
+  <si>
+    <t>NBCSN</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>Bein Sports 1 EN</t>
+  </si>
+  <si>
+    <t>Bein Sports 2 EN</t>
+  </si>
+  <si>
+    <t>Bein Sports 3 EN</t>
+  </si>
+  <si>
+    <t>Fox Sports 1</t>
+  </si>
+  <si>
+    <t>Fox Sports 2</t>
+  </si>
+  <si>
+    <t>The Golf Channel</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -391,20 +461,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E1893E-A88C-4316-A585-93513E9CFDB1}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="A6:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC82EE8-E0BD-49E4-AA20-CF0EB72B56B7}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/channels.xlsx
+++ b/src/channels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITB-AnkrPT\CatIPTVM3u\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPTV\CatIPTVM3u\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641A9F81-E692-447A-AB6A-9E269C758714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3CAFA3-E434-4517-A0AB-E61CD2B8FB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="ChannelList" sheetId="1" r:id="rId1"/>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E1893E-A88C-4316-A585-93513E9CFDB1}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="A6:B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,37 +513,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC82EE8-E0BD-49E4-AA20-CF0EB72B56B7}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A3:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>

--- a/src/channels.xlsx
+++ b/src/channels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPTV\CatIPTVM3u\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3CAFA3-E434-4517-A0AB-E61CD2B8FB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D74FA-D913-497C-B49D-4B109341A28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="ChannelList" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>united kingdom</t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E1893E-A88C-4316-A585-93513E9CFDB1}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -523,9 +523,17 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -537,10 +545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC82EE8-E0BD-49E4-AA20-CF0EB72B56B7}">
-  <dimension ref="A3:B17"/>
+  <dimension ref="A3:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C9" sqref="A3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +673,54 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/channels.xlsx
+++ b/src/channels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPTV\CatIPTVM3u\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D74FA-D913-497C-B49D-4B109341A28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D9DD8-4E72-43F3-BBD2-0BC5972C2C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>united kingdom</t>
   </si>
@@ -61,65 +61,128 @@
     <t>Sky Sports Football</t>
   </si>
   <si>
+    <t>Premier Sports 1</t>
+  </si>
+  <si>
+    <t>Premier Sports 2</t>
+  </si>
+  <si>
+    <t>MUTV</t>
+  </si>
+  <si>
+    <t>NBCSN</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>Bein Sports 1 EN</t>
+  </si>
+  <si>
+    <t>Bein Sports 2 EN</t>
+  </si>
+  <si>
+    <t>Bein Sports 3 EN</t>
+  </si>
+  <si>
+    <t>Fox Sports 1</t>
+  </si>
+  <si>
+    <t>Fox Sports 2</t>
+  </si>
+  <si>
+    <t>The Golf Channel</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
     <t>Sky Sports Golf</t>
   </si>
   <si>
-    <t>BT Sports 1</t>
-  </si>
-  <si>
-    <t>BT Sports 2</t>
-  </si>
-  <si>
-    <t>BT Sports 3</t>
-  </si>
-  <si>
-    <t>Premier Sports 1</t>
-  </si>
-  <si>
-    <t>Premier Sports 2</t>
-  </si>
-  <si>
-    <t>MUTV</t>
-  </si>
-  <si>
-    <t>NBCSN</t>
-  </si>
-  <si>
-    <t>america</t>
-  </si>
-  <si>
-    <t>Bein Sports 1 EN</t>
-  </si>
-  <si>
-    <t>Bein Sports 2 EN</t>
-  </si>
-  <si>
-    <t>Bein Sports 3 EN</t>
-  </si>
-  <si>
-    <t>Fox Sports 1</t>
-  </si>
-  <si>
-    <t>Fox Sports 2</t>
-  </si>
-  <si>
-    <t>The Golf Channel</t>
-  </si>
-  <si>
-    <t>Channels</t>
-  </si>
-  <si>
-    <t>Country</t>
+    <t>Sky Sports F1</t>
+  </si>
+  <si>
+    <t>BT Sport ESPN</t>
+  </si>
+  <si>
+    <t>BT Sport 1</t>
+  </si>
+  <si>
+    <t>BT Sport 2</t>
+  </si>
+  <si>
+    <t>BT Sport 3</t>
+  </si>
+  <si>
+    <t>Fox Soccer</t>
+  </si>
+  <si>
+    <t>CBS Sport</t>
+  </si>
+  <si>
+    <t>Bein Sport</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>Sky Sport News</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>Sky Sport 1 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 2 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 3 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 4 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 5 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 6 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 7 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 8 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 9 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 10 HD</t>
+  </si>
+  <si>
+    <t>Sky Sport 11 HD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,8 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,29 +525,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E1893E-A88C-4316-A585-93513E9CFDB1}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -491,7 +555,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -499,7 +563,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -507,7 +571,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -515,7 +579,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -523,7 +587,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -531,13 +595,252 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -545,132 +848,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC82EE8-E0BD-49E4-AA20-CF0EB72B56B7}">
-  <dimension ref="A3:B23"/>
+  <dimension ref="A15:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A3:C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,30 +904,6 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
         <v>0</v>
       </c>
     </row>

--- a/src/channels.xlsx
+++ b/src/channels.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPTV\CatIPTVM3u\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D9DD8-4E72-43F3-BBD2-0BC5972C2C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118D06B-1154-41FD-B1D5-BE2658C8D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="ChannelList" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="newList" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,20 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>united kingdom</t>
   </si>
   <si>
-    <t>RTE One</t>
-  </si>
-  <si>
-    <t>RTE Two</t>
-  </si>
-  <si>
-    <t>TG4</t>
-  </si>
-  <si>
     <t>Sky Sports News</t>
   </si>
   <si>
@@ -124,15 +115,6 @@
     <t>CBS Sport</t>
   </si>
   <si>
-    <t>Bein Sport</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>Sky Sport News</t>
-  </si>
-  <si>
     <t>germany</t>
   </si>
   <si>
@@ -145,44 +127,26 @@
     <t>Sky Sport 3 HD</t>
   </si>
   <si>
-    <t>Sky Sport 4 HD</t>
-  </si>
-  <si>
-    <t>Sky Sport 5 HD</t>
-  </si>
-  <si>
-    <t>Sky Sport 6 HD</t>
-  </si>
-  <si>
-    <t>Sky Sport 7 HD</t>
-  </si>
-  <si>
-    <t>Sky Sport 8 HD</t>
-  </si>
-  <si>
-    <t>Sky Sport 9 HD</t>
-  </si>
-  <si>
-    <t>Sky Sport 10 HD</t>
-  </si>
-  <si>
-    <t>Sky Sport 11 HD</t>
+    <t>Bein Sports 1 HD</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>Bein Sports 3 HD</t>
+  </si>
+  <si>
+    <t>Bein Sports 2 HD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,30 +488,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E1893E-A88C-4316-A585-93513E9CFDB1}">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F29ACA-BBE3-421A-BC46-334BF8713BA3}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -555,7 +519,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -563,7 +527,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -571,7 +535,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -579,7 +543,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -587,7 +551,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -595,7 +559,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -603,7 +567,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -611,7 +575,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -619,7 +583,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -627,7 +591,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -635,7 +599,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -643,7 +607,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -651,15 +615,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -667,7 +631,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -675,7 +639,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -683,228 +647,225 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC82EE8-E0BD-49E4-AA20-CF0EB72B56B7}">
-  <dimension ref="A15:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53431E0-F15D-48DC-864E-8EDC78C78C20}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/channels.xlsx
+++ b/src/channels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPTV\CatIPTVM3u\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118D06B-1154-41FD-B1D5-BE2658C8D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CED058B-4CE8-434C-B881-5B9EE0267A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{15F1F1C4-C372-428F-A383-07C6B03FCAC0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>united kingdom</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>BT Sport 3</t>
-  </si>
-  <si>
-    <t>Fox Soccer</t>
   </si>
   <si>
     <t>CBS Sport</t>
@@ -489,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F29ACA-BBE3-421A-BC46-334BF8713BA3}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+      <selection activeCell="B28" sqref="A4:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,240 +522,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53431E0-F15D-48DC-864E-8EDC78C78C20}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60BA877-6232-4632-AC11-08DAAAF3055F}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -766,7 +555,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -774,7 +563,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -782,7 +571,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -790,7 +579,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -798,7 +587,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -806,7 +595,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -814,7 +603,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -822,7 +611,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -830,7 +619,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -838,15 +627,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -854,7 +643,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -862,10 +651,90 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
